--- a/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-medication-ingredient-drugno.xlsx
+++ b/jpcore-r4/feature/swg2-DiagnosticReportのCategoryを設定/StructureDefinition-jp-medication-ingredient-drugno.xlsx
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>投与量が製剤単位か成分単位かを格納する拡張</t>
+    <t>同一剤グループ内での順番を格納する拡張</t>
   </si>
   <si>
     <t>Purpose</t>
